--- a/gimptoffmpeg.xlsx
+++ b/gimptoffmpeg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465725E-4343-4FC1-926C-5E2526850756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF43D424-21E7-4E6D-91E2-D71356F46639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-53010" yWindow="1275" windowWidth="24945" windowHeight="18960" activeTab="4" xr2:uid="{1ED5C547-FD33-4E14-90DC-75F596864DF8}"/>
+    <workbookView minimized="1" xWindow="-53010" yWindow="1275" windowWidth="24945" windowHeight="18960" firstSheet="7" activeTab="7" xr2:uid="{1ED5C547-FD33-4E14-90DC-75F596864DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="carolien" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="els" sheetId="3" r:id="rId3"/>
     <sheet name="chris" sheetId="4" r:id="rId4"/>
     <sheet name="jonathan" sheetId="5" r:id="rId5"/>
+    <sheet name="marlies" sheetId="6" r:id="rId6"/>
+    <sheet name="dirk" sheetId="7" r:id="rId7"/>
+    <sheet name="karolien" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
   <si>
     <t>red</t>
   </si>
@@ -843,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D396FE4-5874-4BF9-AAD4-D8C23A77AFB7}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,4 +947,325 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41169D0A-B79C-477D-9FF6-C1C67822BDC3}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D2">
+        <v>203</v>
+      </c>
+      <c r="F2" s="1">
+        <f>B2/255</f>
+        <v>7.8431372549019607E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <f>D2/255</f>
+        <v>0.79607843137254897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D3">
+        <v>211</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F4" si="0">B3/255</f>
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G4" si="1">D3/255</f>
+        <v>0.82745098039215681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D4">
+        <v>229</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.89803921568627454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>"colorlevels=rimin=" &amp; ROUND(F2,2) &amp; ":gimin=" &amp; ROUND(F3,2) &amp; ":bimin=" &amp; ROUND(F4,2) &amp; ":rimax=" &amp; ROUND(G2,2) &amp; ":gimax=" &amp; ROUND(G3,2) &amp; ":bimax=" &amp; ROUND(G4,2) &amp; ",eq=gamma_r=" &amp; ROUND(C2,2) &amp; ":gamma_g=" &amp; ROUND(C3,2) &amp; ":gamma_b=" &amp; ROUND(C4,2)</f>
+        <v>colorlevels=rimin=0.01:gimin=0:bimin=0.01:rimax=0.8:gimax=0.83:bimax=0.9,eq=gamma_r=1.6:gamma_g=1.6:gamma_b=1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C73604-0F89-426F-A641-6660E59D034C}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D2">
+        <v>254</v>
+      </c>
+      <c r="F2" s="1">
+        <f>B2/255</f>
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <f>D2/255</f>
+        <v>0.99607843137254903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D3">
+        <v>242</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F4" si="0">B3/255</f>
+        <v>3.5294117647058823E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G4" si="1">D3/255</f>
+        <v>0.94901960784313721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D4">
+        <v>238</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>"colorlevels=rimin=" &amp; ROUND(F2,2) &amp; ":gimin=" &amp; ROUND(F3,2) &amp; ":bimin=" &amp; ROUND(F4,2) &amp; ":rimax=" &amp; ROUND(G2,2) &amp; ":gimax=" &amp; ROUND(G3,2) &amp; ":bimax=" &amp; ROUND(G4,2) &amp; ",eq=gamma_r=" &amp; ROUND(C2,2) &amp; ":gamma_g=" &amp; ROUND(C3,2) &amp; ":gamma_b=" &amp; ROUND(C4,2)</f>
+        <v>colorlevels=rimin=0.04:gimin=0.04:bimin=0.02:rimax=1:gimax=0.95:bimax=0.93,eq=gamma_r=1.3:gamma_g=1.3:gamma_b=1.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98521928-26F3-45A9-A257-38EBE26B07DB}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D2">
+        <v>254</v>
+      </c>
+      <c r="F2" s="1">
+        <f>B2/255</f>
+        <v>0.10196078431372549</v>
+      </c>
+      <c r="G2" s="1">
+        <f>D2/255</f>
+        <v>0.99607843137254903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D3">
+        <v>254</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F4" si="0">B3/255</f>
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G4" si="1">D3/255</f>
+        <v>0.99607843137254903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D4">
+        <v>254</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0196078431372548E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99607843137254903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>"colorlevels=rimin=" &amp; ROUND(F2,2) &amp; ":gimin=" &amp; ROUND(F3,2) &amp; ":bimin=" &amp; ROUND(F4,2) &amp; ":rimax=" &amp; ROUND(G2,2) &amp; ":gimax=" &amp; ROUND(G3,2) &amp; ":bimax=" &amp; ROUND(G4,2) &amp; ",eq=gamma_r=" &amp; ROUND(C2,2) &amp; ":gamma_g=" &amp; ROUND(C3,2) &amp; ":gamma_b=" &amp; ROUND(C4,2)</f>
+        <v>colorlevels=rimin=0.1:gimin=0.08:bimin=0.09:rimax=1:gimax=1:bimax=1,eq=gamma_r=1.6:gamma_g=1.6:gamma_b=1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>